--- a/public/formats/persons.xlsx
+++ b/public/formats/persons.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Código documento de identidad</t>
   </si>
@@ -98,10 +98,13 @@
     <t>Website</t>
   </si>
   <si>
-    <t>xvideos.com</t>
-  </si>
-  <si>
     <t>youtube.com</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Andres Salas</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +521,7 @@
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +564,11 @@
       <c r="N1" t="s">
         <v>19</v>
       </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -582,11 +588,11 @@
       <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
-        <v>24</v>
+      <c r="O2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -618,7 +624,7 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>
